--- a/etc/scripts/demand_new_shops.xlsx
+++ b/etc/scripts/demand_new_shops.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anton/QoS_backend/etc/scripts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FB9A92-9DA2-BD42-A731-060166C72E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27940" windowHeight="8320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,33 +34,29 @@
     <t>Торговый зал</t>
   </si>
   <si>
-    <t>O_TYPE3</t>
-  </si>
-  <si>
-    <t>O_TYPE4</t>
-  </si>
-  <si>
-    <t>O_TYPE5</t>
-  </si>
-  <si>
     <t>0123</t>
   </si>
   <si>
     <t>122</t>
   </si>
+  <si>
+    <t>Кассы3</t>
+  </si>
+  <si>
+    <t>Кассы4</t>
+  </si>
+  <si>
+    <t>Кассы5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,346 +72,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -432,319 +104,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1029,26 +415,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.875" customWidth="1"/>
-    <col min="4" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="7" width="12.625"/>
+    <col min="1" max="2" width="18.83203125" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,21 +448,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44287</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1094,64 +480,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44287.375</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D3">
-        <v>0.0105245616286993</v>
+        <v>1.0524561628699299E-2</v>
       </c>
       <c r="E3">
-        <v>118.426979064941</v>
+        <v>118.42697906494099</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0250584818422794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2.50584818422794E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44287.4166666667</v>
+        <v>44287.416666666701</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D4">
-        <v>0.0117850946262479</v>
+        <v>1.17850946262479E-2</v>
       </c>
       <c r="E4">
-        <v>151.839141845703</v>
+        <v>151.83914184570301</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0280597507953644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>2.8059750795364401E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44287.4583333333</v>
+        <v>44287.458333333299</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D5">
-        <v>0.0150077827274799</v>
+        <v>1.50077827274799E-2</v>
       </c>
       <c r="E5">
         <v>206.2939453125</v>
@@ -1160,90 +546,90 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0357328169047832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>3.57328169047832E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44287.5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D6">
-        <v>0.0167425405234098</v>
+        <v>1.6742540523409798E-2</v>
       </c>
       <c r="E6">
-        <v>218.398834228516</v>
+        <v>218.39883422851599</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0398631952702999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>3.9863195270299898E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44287.5416666667</v>
+        <v>44287.541666666701</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D7">
-        <v>0.0175869148224592</v>
+        <v>1.75869148224592E-2</v>
       </c>
       <c r="E7">
-        <v>234.119293212891</v>
+        <v>234.11929321289099</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0418736077845097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>4.18736077845097E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44287.5833333333</v>
+        <v>44287.583333333299</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D8">
-        <v>0.0173427537083626</v>
+        <v>1.73427537083626E-2</v>
       </c>
       <c r="E8">
-        <v>234.119293212891</v>
+        <v>234.11929321289099</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0412922725081444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4.1292272508144399E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44287.625</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D9">
-        <v>0.0171191412955523</v>
+        <v>1.7119141295552299E-2</v>
       </c>
       <c r="E9">
         <v>228.9072265625</v>
@@ -1252,21 +638,21 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0407598614692688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>4.0759861469268799E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44287.6666666667</v>
+        <v>44287.666666666701</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0176027473062277</v>
+        <v>1.7602747306227701E-2</v>
       </c>
       <c r="E10">
         <v>228.9072265625</v>
@@ -1275,44 +661,44 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0419113039970398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4.1911303997039802E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44287.7083333333</v>
+        <v>44287.708333333299</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0176435187458992</v>
+        <v>1.76435187458992E-2</v>
       </c>
       <c r="E11">
-        <v>217.111846923828</v>
+        <v>217.11184692382801</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0420083813369274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>4.20083813369274E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44287.75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0175265073776245</v>
+        <v>1.7526507377624501E-2</v>
       </c>
       <c r="E12">
         <v>210.84619140625</v>
@@ -1321,21 +707,21 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0417297817766666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4.17297817766666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44287.7916666667</v>
+        <v>44287.791666666701</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0174884684383869</v>
+        <v>1.74884684383869E-2</v>
       </c>
       <c r="E13">
         <v>209.379959106445</v>
@@ -1344,38 +730,38 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0416392087936401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>4.1639208793640102E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44287.8333333333</v>
+        <v>44287.833333333299</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0137258088216186</v>
+        <v>1.37258088216186E-2</v>
       </c>
       <c r="E14">
-        <v>142.616073608398</v>
+        <v>142.61607360839801</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0326805002987385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>3.26805002987385E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44288</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1387,24 +773,24 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.121067248284817</v>
+        <v>0.12106724828481701</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44288.375</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D16">
-        <v>0.0101728374138474</v>
+        <v>1.01728374138474E-2</v>
       </c>
       <c r="E16">
         <v>115.312088012695</v>
@@ -1413,268 +799,268 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0242210403084755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>2.4221040308475501E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44288.4166666667</v>
+        <v>44288.416666666701</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D17">
-        <v>0.0120178759098053</v>
+        <v>1.20178759098053E-2</v>
       </c>
       <c r="E17">
-        <v>155.347305297852</v>
+        <v>155.34730529785199</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0286139901727438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>2.8613990172743801E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44288.4583333333</v>
+        <v>44288.458333333299</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D18">
-        <v>0.0152405621483922</v>
+        <v>1.52405621483922E-2</v>
       </c>
       <c r="E18">
-        <v>210.298294067383</v>
+        <v>210.29829406738301</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0362870544195175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>3.6287054419517503E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44288.5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D19">
-        <v>0.0169753208756447</v>
+        <v>1.6975320875644701E-2</v>
       </c>
       <c r="E19">
-        <v>222.403167724609</v>
+        <v>222.40316772460901</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0404174327850342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>4.0417432785034201E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44288.5416666667</v>
+        <v>44288.541666666701</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D20">
-        <v>0.0178196914494038</v>
+        <v>1.7819691449403801E-2</v>
       </c>
       <c r="E20">
-        <v>238.123626708984</v>
+        <v>238.12362670898401</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0424278378486633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>4.2427837848663302E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44288.5833333333</v>
+        <v>44288.583333333299</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D21">
-        <v>0.0175755321979523</v>
+        <v>1.7575532197952302E-2</v>
       </c>
       <c r="E21">
-        <v>238.123626708984</v>
+        <v>238.12362670898401</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0418465062975883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>4.18465062975883E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44288.625</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D22">
-        <v>0.0173519216477871</v>
+        <v>1.7351921647787101E-2</v>
       </c>
       <c r="E22">
-        <v>234.876571655273</v>
+        <v>234.87657165527301</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0413141027092934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>4.13141027092934E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44288.6666666667</v>
+        <v>44288.666666666701</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0178355257958174</v>
+        <v>1.7835525795817399E-2</v>
       </c>
       <c r="E23">
-        <v>234.876571655273</v>
+        <v>234.87657165527301</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0424655415117741</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>4.2465541511774098E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44288.7083333333</v>
+        <v>44288.708333333299</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0178762972354889</v>
+        <v>1.7876297235488899E-2</v>
       </c>
       <c r="E24">
-        <v>217.705856323242</v>
+        <v>217.70585632324199</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0425626151263714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>4.2562615126371398E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44288.75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0177592821419239</v>
+        <v>1.7759282141923901E-2</v>
       </c>
       <c r="E25">
-        <v>211.440200805664</v>
+        <v>211.44020080566401</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0422840043902397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>4.2284004390239702E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44288.7916666667</v>
+        <v>44288.791666666701</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.0177212376147509</v>
+        <v>1.77212376147509E-2</v>
       </c>
       <c r="E26">
-        <v>209.973968505859</v>
+        <v>209.97396850585901</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.0421934239566326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>4.21934239566326E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44288.8333333333</v>
+        <v>44288.833333333299</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.013958590105176</v>
+        <v>1.3958590105176E-2</v>
       </c>
       <c r="E27">
-        <v>143.210098266602</v>
+        <v>143.21009826660199</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.0332347378134727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>3.3234737813472699E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44287</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1692,64 +1078,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44287.375</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D29">
-        <v>0.0105245616286993</v>
+        <v>1.0524561628699299E-2</v>
       </c>
       <c r="E29">
-        <v>118.426979064941</v>
+        <v>118.42697906494099</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.0250584818422794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>2.50584818422794E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44287.4166666667</v>
+        <v>44287.416666666701</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D30">
-        <v>0.0117850946262479</v>
+        <v>1.17850946262479E-2</v>
       </c>
       <c r="E30">
-        <v>151.839141845703</v>
+        <v>151.83914184570301</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.0280597507953644</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>2.8059750795364401E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44287.4583333333</v>
+        <v>44287.458333333299</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D31">
-        <v>0.0150077827274799</v>
+        <v>1.50077827274799E-2</v>
       </c>
       <c r="E31">
         <v>206.2939453125</v>
@@ -1758,90 +1144,90 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.0357328169047832</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>3.57328169047832E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44287.5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D32">
-        <v>0.0167425405234098</v>
+        <v>1.6742540523409798E-2</v>
       </c>
       <c r="E32">
-        <v>218.398834228516</v>
+        <v>218.39883422851599</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.0398631952702999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>3.9863195270299898E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44287.5416666667</v>
+        <v>44287.541666666701</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D33">
-        <v>0.0175869148224592</v>
+        <v>1.75869148224592E-2</v>
       </c>
       <c r="E33">
-        <v>234.119293212891</v>
+        <v>234.11929321289099</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.0418736077845097</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>4.18736077845097E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44287.5833333333</v>
+        <v>44287.583333333299</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D34">
-        <v>0.0173427537083626</v>
+        <v>1.73427537083626E-2</v>
       </c>
       <c r="E34">
-        <v>234.119293212891</v>
+        <v>234.11929321289099</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.0412922725081444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>4.1292272508144399E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44287.625</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D35">
-        <v>0.0171191412955523</v>
+        <v>1.7119141295552299E-2</v>
       </c>
       <c r="E35">
         <v>228.9072265625</v>
@@ -1850,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.0407598614692688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>4.0759861469268799E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>44287.6666666667</v>
+        <v>44287.666666666701</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.0176027473062277</v>
+        <v>1.7602747306227701E-2</v>
       </c>
       <c r="E36">
         <v>228.9072265625</v>
@@ -1873,44 +1259,44 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.0419113039970398</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>4.1911303997039802E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44287.7083333333</v>
+        <v>44287.708333333299</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.0176435187458992</v>
+        <v>1.76435187458992E-2</v>
       </c>
       <c r="E37">
-        <v>217.111846923828</v>
+        <v>217.11184692382801</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.0420083813369274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>4.20083813369274E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44287.75</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.0175265073776245</v>
+        <v>1.7526507377624501E-2</v>
       </c>
       <c r="E38">
         <v>210.84619140625</v>
@@ -1919,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.0417297817766666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>4.17297817766666E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44287.7916666667</v>
+        <v>44287.791666666701</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.0174884684383869</v>
+        <v>1.74884684383869E-2</v>
       </c>
       <c r="E39">
         <v>209.379959106445</v>
@@ -1942,38 +1328,38 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.0416392087936401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>4.1639208793640102E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44287.8333333333</v>
+        <v>44287.833333333299</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.0137258088216186</v>
+        <v>1.37258088216186E-2</v>
       </c>
       <c r="E40">
-        <v>142.616073608398</v>
+        <v>142.61607360839801</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.0326805002987385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>3.26805002987385E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44288</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1985,24 +1371,24 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.121067248284817</v>
+        <v>0.12106724828481701</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44288.375</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D42">
-        <v>0.0101728374138474</v>
+        <v>1.01728374138474E-2</v>
       </c>
       <c r="E42">
         <v>115.312088012695</v>
@@ -2011,264 +1397,263 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.0242210403084755</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>2.4221040308475501E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44288.4166666667</v>
+        <v>44288.416666666701</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D43">
-        <v>0.0120178759098053</v>
+        <v>1.20178759098053E-2</v>
       </c>
       <c r="E43">
-        <v>155.347305297852</v>
+        <v>155.34730529785199</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0.0286139901727438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>2.8613990172743801E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44288.4583333333</v>
+        <v>44288.458333333299</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D44">
-        <v>0.0152405621483922</v>
+        <v>1.52405621483922E-2</v>
       </c>
       <c r="E44">
-        <v>210.298294067383</v>
+        <v>210.29829406738301</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.0362870544195175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>3.6287054419517503E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44288.5</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D45">
-        <v>0.0169753208756447</v>
+        <v>1.6975320875644701E-2</v>
       </c>
       <c r="E45">
-        <v>222.403167724609</v>
+        <v>222.40316772460901</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.0404174327850342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>4.0417432785034201E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44288.5416666667</v>
+        <v>44288.541666666701</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D46">
-        <v>0.0178196914494038</v>
+        <v>1.7819691449403801E-2</v>
       </c>
       <c r="E46">
-        <v>238.123626708984</v>
+        <v>238.12362670898401</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.0424278378486633</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>4.2427837848663302E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44288.5833333333</v>
+        <v>44288.583333333299</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D47">
-        <v>0.0175755321979523</v>
+        <v>1.7575532197952302E-2</v>
       </c>
       <c r="E47">
-        <v>238.123626708984</v>
+        <v>238.12362670898401</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.0418465062975883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>4.18465062975883E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44288.625</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0.165714278817177</v>
+        <v>0.16571427881717701</v>
       </c>
       <c r="D48">
-        <v>0.0173519216477871</v>
+        <v>1.7351921647787101E-2</v>
       </c>
       <c r="E48">
-        <v>234.876571655273</v>
+        <v>234.87657165527301</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.0413141027092934</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>4.13141027092934E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44288.6666666667</v>
+        <v>44288.666666666701</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.0178355257958174</v>
+        <v>1.7835525795817399E-2</v>
       </c>
       <c r="E49">
-        <v>234.876571655273</v>
+        <v>234.87657165527301</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0.0424655415117741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>4.2465541511774098E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44288.7083333333</v>
+        <v>44288.708333333299</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.0178762972354889</v>
+        <v>1.7876297235488899E-2</v>
       </c>
       <c r="E50">
-        <v>217.705856323242</v>
+        <v>217.70585632324199</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.0425626151263714</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>4.2562615126371398E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44288.75</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.0177592821419239</v>
+        <v>1.7759282141923901E-2</v>
       </c>
       <c r="E51">
-        <v>211.440200805664</v>
+        <v>211.44020080566401</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.0422840043902397</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>4.2284004390239702E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44288.7916666667</v>
+        <v>44288.791666666701</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.0177212376147509</v>
+        <v>1.77212376147509E-2</v>
       </c>
       <c r="E52">
-        <v>209.973968505859</v>
+        <v>209.97396850585901</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.0421934239566326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>4.21934239566326E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44288.8333333333</v>
+        <v>44288.833333333299</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.013958590105176</v>
+        <v>1.3958590105176E-2</v>
       </c>
       <c r="E53">
-        <v>143.210098266602</v>
+        <v>143.21009826660199</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.0332347378134727</v>
+        <v>3.3234737813472699E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>